--- a/Database_stats.xlsx
+++ b/Database_stats.xlsx
@@ -6,48 +6,42 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Dane statystyczne" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Dane statystyczne: Database.txt</t>
   </si>
   <si>
-    <t>Zad.1</t>
-  </si>
-  <si>
-    <t>Zad.2</t>
-  </si>
-  <si>
-    <t>Zad.3</t>
-  </si>
-  <si>
-    <t>Zad.4</t>
-  </si>
-  <si>
-    <t>Zad.5</t>
-  </si>
-  <si>
-    <t>Zad.6</t>
-  </si>
-  <si>
-    <t>Zad.7</t>
-  </si>
-  <si>
-    <t>Zad.8</t>
-  </si>
-  <si>
-    <t>Zad.9</t>
-  </si>
-  <si>
-    <t>Zad.10</t>
-  </si>
-  <si>
-    <t>Zad.11</t>
+    <t>Ilość znaków</t>
+  </si>
+  <si>
+    <t>Ilość znaków białych</t>
+  </si>
+  <si>
+    <t>Ilość linii tekstu w pliku</t>
+  </si>
+  <si>
+    <t>Ilość wielkich liter</t>
+  </si>
+  <si>
+    <t>Ilość małych liter</t>
+  </si>
+  <si>
+    <t>Ilość znaków interpunkcyjnych</t>
+  </si>
+  <si>
+    <t>Ilość cyfr</t>
+  </si>
+  <si>
+    <t>Ilość słów</t>
+  </si>
+  <si>
+    <t>Ilość zdań</t>
   </si>
 </sst>
 </file>
@@ -105,74 +99,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.6484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="n">
+        <v>371.0</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/Database_stats.xlsx
+++ b/Database_stats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Dane statystyczne: Database.txt</t>
   </si>
@@ -42,6 +42,186 @@
   </si>
   <si>
     <t>Ilość zdań</t>
+  </si>
+  <si>
+    <t>Słowa bez powtórzeń</t>
+  </si>
+  <si>
+    <t>Cyfry bez powtórzeń</t>
+  </si>
+  <si>
+    <t>Zacz</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>nam</t>
+  </si>
+  <si>
+    <t>podsuwa</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>lektury</t>
+  </si>
+  <si>
+    <t>kt</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>nas</t>
+  </si>
+  <si>
+    <t>rozwija</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>sposoby</t>
+  </si>
+  <si>
+    <t>Ciekawi</t>
+  </si>
+  <si>
+    <t>mnie</t>
+  </si>
+  <si>
+    <t>jak</t>
+  </si>
+  <si>
+    <t>opinie</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>temat</t>
+  </si>
+  <si>
+    <t>relacji</t>
+  </si>
+  <si>
+    <t>damsko</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>skich</t>
+  </si>
+  <si>
+    <t>czy</t>
+  </si>
+  <si>
+    <t>jeste</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>odpowiednim</t>
+  </si>
+  <si>
+    <t>wieku</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>anga</t>
+  </si>
+  <si>
+    <t>owania</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>zwi</t>
+  </si>
+  <si>
+    <t>zki</t>
+  </si>
+  <si>
+    <t>Nie</t>
+  </si>
+  <si>
+    <t>powinni</t>
+  </si>
+  <si>
+    <t>skupi</t>
+  </si>
+  <si>
+    <t>naszym</t>
+  </si>
+  <si>
+    <t>rozwoju</t>
+  </si>
+  <si>
+    <t>Przecie</t>
+  </si>
+  <si>
+    <t>inwestowanie</t>
+  </si>
+  <si>
+    <t>czasu</t>
+  </si>
+  <si>
+    <t>kogo</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>kim</t>
+  </si>
+  <si>
+    <t>zapewne</t>
+  </si>
+  <si>
+    <t>kiedy</t>
+  </si>
+  <si>
+    <t>rozstaniemy</t>
+  </si>
+  <si>
+    <t>wydaje</t>
+  </si>
+  <si>
+    <t>zaprzeczeniem</t>
+  </si>
+  <si>
+    <t>tego</t>
+  </si>
+  <si>
+    <t>czego</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -99,13 +279,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.296875" customWidth="true"/>
+    <col min="3" max="3" width="20.1640625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.42578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -123,8 +305,12 @@
       <c r="B2" t="n">
         <v>371.0</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -133,8 +319,12 @@
       <c r="B3" t="n">
         <v>75.0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -143,8 +333,12 @@
       <c r="B4" t="n">
         <v>4.0</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -153,8 +347,12 @@
       <c r="B5" t="n">
         <v>5.0</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -163,7 +361,9 @@
       <c r="B6" t="n">
         <v>286.0</v>
       </c>
-      <c r="C6"/>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
       <c r="D6"/>
     </row>
     <row r="7">
@@ -173,7 +373,9 @@
       <c r="B7" t="n">
         <v>4.0</v>
       </c>
-      <c r="C7"/>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
       <c r="D7"/>
     </row>
     <row r="8">
@@ -183,7 +385,9 @@
       <c r="B8" t="n">
         <v>52.0</v>
       </c>
-      <c r="C8"/>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
       <c r="D8"/>
     </row>
     <row r="9">
@@ -193,7 +397,9 @@
       <c r="B9" t="n">
         <v>68.0</v>
       </c>
-      <c r="C9"/>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
       <c r="D9"/>
     </row>
     <row r="10">
@@ -203,8 +409,386 @@
       <c r="B10" t="n">
         <v>4.0</v>
       </c>
-      <c r="C10"/>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
       <c r="D10"/>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11"/>
+    </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12"/>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13"/>
+    </row>
+    <row r="14">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14"/>
+    </row>
+    <row r="15">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15"/>
+    </row>
+    <row r="16">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16"/>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17"/>
+    </row>
+    <row r="18">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18"/>
+    </row>
+    <row r="19">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19"/>
+    </row>
+    <row r="20">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20"/>
+    </row>
+    <row r="21">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21"/>
+    </row>
+    <row r="22">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22"/>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23"/>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24"/>
+    </row>
+    <row r="25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25"/>
+    </row>
+    <row r="26">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26"/>
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27"/>
+    </row>
+    <row r="28">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28"/>
+    </row>
+    <row r="29">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29"/>
+    </row>
+    <row r="30">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30"/>
+    </row>
+    <row r="31">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31"/>
+    </row>
+    <row r="32">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32"/>
+    </row>
+    <row r="33">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33"/>
+    </row>
+    <row r="34">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34"/>
+    </row>
+    <row r="35">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35"/>
+    </row>
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36"/>
+    </row>
+    <row r="37">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37"/>
+    </row>
+    <row r="38">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38"/>
+    </row>
+    <row r="39">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39"/>
+    </row>
+    <row r="40">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40"/>
+    </row>
+    <row r="41">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41"/>
+    </row>
+    <row r="42">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42"/>
+    </row>
+    <row r="43">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43"/>
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44"/>
+    </row>
+    <row r="45">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45"/>
+    </row>
+    <row r="46">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46"/>
+    </row>
+    <row r="47">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47"/>
+    </row>
+    <row r="48">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48"/>
+    </row>
+    <row r="49">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49"/>
+    </row>
+    <row r="50">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50"/>
+    </row>
+    <row r="51">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51"/>
+    </row>
+    <row r="52">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52"/>
+    </row>
+    <row r="53">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53"/>
+    </row>
+    <row r="54">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54"/>
+    </row>
+    <row r="55">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55"/>
+    </row>
+    <row r="56">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56"/>
+    </row>
+    <row r="57">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/Database_stats.xlsx
+++ b/Database_stats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Dane statystyczne: Database.txt</t>
   </si>
@@ -215,13 +215,10 @@
     <t>czego</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>profesor</t>
+  </si>
+  <si>
+    <t>uczy</t>
   </si>
 </sst>
 </file>
@@ -279,7 +276,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -303,7 +300,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>371.0</v>
+        <v>365.0</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -317,13 +314,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>75.0</v>
+        <v>86.0</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>67</v>
+      <c r="D3" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -336,8 +333,8 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>68</v>
+      <c r="D4" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -350,8 +347,8 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>69</v>
+      <c r="D5" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -364,7 +361,9 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -376,19 +375,23 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7"/>
+      <c r="D7" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>52.0</v>
+        <v>46.0</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8"/>
+      <c r="D8" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -400,7 +403,9 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -412,7 +417,9 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D10"/>
+      <c r="D10" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11"/>
@@ -420,7 +427,9 @@
       <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12"/>
@@ -789,6 +798,22 @@
         <v>66</v>
       </c>
       <c r="D57"/>
+    </row>
+    <row r="58">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58"/>
+    </row>
+    <row r="59">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/Database_stats.xlsx
+++ b/Database_stats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Dane statystyczne: Database.txt</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Cyfry bez powtórzeń</t>
   </si>
   <si>
-    <t>Zacz</t>
+    <t>Zaczął</t>
   </si>
   <si>
     <t>Pan</t>
@@ -59,31 +59,25 @@
     <t>nam</t>
   </si>
   <si>
-    <t>podsuwa</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>ne</t>
+    <t>podsuwać</t>
+  </si>
+  <si>
+    <t>różne</t>
   </si>
   <si>
     <t>lektury</t>
   </si>
   <si>
-    <t>kt</t>
-  </si>
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>maj</t>
+    <t>które</t>
+  </si>
+  <si>
+    <t>mają</t>
   </si>
   <si>
     <t>nas</t>
   </si>
   <si>
-    <t>rozwija</t>
+    <t>rozwijać</t>
   </si>
   <si>
     <t>w</t>
@@ -98,7 +92,7 @@
     <t>mnie</t>
   </si>
   <si>
-    <t>jak</t>
+    <t>jaką</t>
   </si>
   <si>
     <t>opinie</t>
@@ -122,19 +116,13 @@
     <t>damsko</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>skich</t>
+    <t>męskich</t>
   </si>
   <si>
     <t>czy</t>
   </si>
   <si>
-    <t>jeste</t>
-  </si>
-  <si>
-    <t>my</t>
+    <t>jesteśmy</t>
   </si>
   <si>
     <t>odpowiednim</t>
@@ -146,28 +134,22 @@
     <t>do</t>
   </si>
   <si>
-    <t>anga</t>
-  </si>
-  <si>
-    <t>owania</t>
-  </si>
-  <si>
-    <t>si</t>
-  </si>
-  <si>
-    <t>zwi</t>
-  </si>
-  <si>
-    <t>zki</t>
+    <t>angażowania</t>
+  </si>
+  <si>
+    <t>się</t>
+  </si>
+  <si>
+    <t>związki</t>
   </si>
   <si>
     <t>Nie</t>
   </si>
   <si>
-    <t>powinni</t>
-  </si>
-  <si>
-    <t>skupi</t>
+    <t>powinniśmy</t>
+  </si>
+  <si>
+    <t>skupić</t>
   </si>
   <si>
     <t>naszym</t>
@@ -176,7 +158,7 @@
     <t>rozwoju</t>
   </si>
   <si>
-    <t>Przecie</t>
+    <t>Przecież</t>
   </si>
   <si>
     <t>inwestowanie</t>
@@ -185,7 +167,7 @@
     <t>czasu</t>
   </si>
   <si>
-    <t>kogo</t>
+    <t>kogoś</t>
   </si>
   <si>
     <t>z</t>
@@ -197,7 +179,7 @@
     <t>zapewne</t>
   </si>
   <si>
-    <t>kiedy</t>
+    <t>kiedyś</t>
   </si>
   <si>
     <t>rozstaniemy</t>
@@ -276,7 +258,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -300,7 +282,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>365.0</v>
+        <v>367.0</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -356,7 +338,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>286.0</v>
+        <v>310.0</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -398,7 +380,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>68.0</v>
+        <v>60.0</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -766,54 +748,6 @@
         <v>62</v>
       </c>
       <c r="D53"/>
-    </row>
-    <row r="54">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54"/>
-    </row>
-    <row r="55">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55"/>
-    </row>
-    <row r="56">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56"/>
-    </row>
-    <row r="57">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57"/>
-    </row>
-    <row r="58">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58"/>
-    </row>
-    <row r="59">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/Database_stats.xlsx
+++ b/Database_stats.xlsx
@@ -217,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,8 +234,38 @@
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -243,15 +273,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -273,150 +360,150 @@
       <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="3" t="n">
         <v>367.0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="3" t="n">
         <v>86.0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="n" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="3" t="n">
         <v>4.0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="n" s="4">
         <v>2.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="n" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="3" t="n">
         <v>310.0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="n" s="4">
         <v>5.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="3" t="n">
         <v>4.0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="n" s="4">
         <v>7.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="3" t="n">
         <v>46.0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="n" s="4">
         <v>8.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="3" t="n">
         <v>60.0</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="n" s="4">
         <v>9.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="3" t="n">
         <v>4.0</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="n" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11"/>
       <c r="B11"/>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="n" s="4">
         <v>6.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12"/>
       <c r="B12"/>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="4">
         <v>21</v>
       </c>
       <c r="D12"/>
@@ -424,7 +511,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13"/>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="4">
         <v>22</v>
       </c>
       <c r="D13"/>
@@ -432,7 +519,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14"/>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="4">
         <v>23</v>
       </c>
       <c r="D14"/>
@@ -440,7 +527,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15"/>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="4">
         <v>24</v>
       </c>
       <c r="D15"/>
@@ -448,7 +535,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16"/>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="4">
         <v>25</v>
       </c>
       <c r="D16"/>
@@ -456,7 +543,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17"/>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="4">
         <v>26</v>
       </c>
       <c r="D17"/>
@@ -464,7 +551,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18"/>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="4">
         <v>27</v>
       </c>
       <c r="D18"/>
@@ -472,7 +559,7 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="4">
         <v>28</v>
       </c>
       <c r="D19"/>
@@ -480,7 +567,7 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="4">
         <v>29</v>
       </c>
       <c r="D20"/>
@@ -488,7 +575,7 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="4">
         <v>30</v>
       </c>
       <c r="D21"/>
@@ -496,7 +583,7 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="4">
         <v>31</v>
       </c>
       <c r="D22"/>
@@ -504,7 +591,7 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23"/>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="4">
         <v>32</v>
       </c>
       <c r="D23"/>
@@ -512,7 +599,7 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24"/>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="4">
         <v>33</v>
       </c>
       <c r="D24"/>
@@ -520,7 +607,7 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25"/>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="4">
         <v>34</v>
       </c>
       <c r="D25"/>
@@ -528,7 +615,7 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26"/>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="4">
         <v>35</v>
       </c>
       <c r="D26"/>
@@ -536,7 +623,7 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27"/>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="4">
         <v>36</v>
       </c>
       <c r="D27"/>
@@ -544,7 +631,7 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28"/>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="4">
         <v>37</v>
       </c>
       <c r="D28"/>
@@ -552,7 +639,7 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29"/>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="4">
         <v>38</v>
       </c>
       <c r="D29"/>
@@ -560,7 +647,7 @@
     <row r="30">
       <c r="A30"/>
       <c r="B30"/>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="4">
         <v>39</v>
       </c>
       <c r="D30"/>
@@ -568,7 +655,7 @@
     <row r="31">
       <c r="A31"/>
       <c r="B31"/>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="4">
         <v>40</v>
       </c>
       <c r="D31"/>
@@ -576,7 +663,7 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32"/>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="4">
         <v>41</v>
       </c>
       <c r="D32"/>
@@ -584,7 +671,7 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33"/>
-      <c r="C33" t="s">
+      <c r="C33" t="s" s="4">
         <v>42</v>
       </c>
       <c r="D33"/>
@@ -592,7 +679,7 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34"/>
-      <c r="C34" t="s">
+      <c r="C34" t="s" s="4">
         <v>43</v>
       </c>
       <c r="D34"/>
@@ -600,7 +687,7 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35"/>
-      <c r="C35" t="s">
+      <c r="C35" t="s" s="4">
         <v>44</v>
       </c>
       <c r="D35"/>
@@ -608,7 +695,7 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36"/>
-      <c r="C36" t="s">
+      <c r="C36" t="s" s="4">
         <v>45</v>
       </c>
       <c r="D36"/>
@@ -616,7 +703,7 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37"/>
-      <c r="C37" t="s">
+      <c r="C37" t="s" s="4">
         <v>46</v>
       </c>
       <c r="D37"/>
@@ -624,7 +711,7 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38"/>
-      <c r="C38" t="s">
+      <c r="C38" t="s" s="4">
         <v>47</v>
       </c>
       <c r="D38"/>
@@ -632,7 +719,7 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39"/>
-      <c r="C39" t="s">
+      <c r="C39" t="s" s="4">
         <v>48</v>
       </c>
       <c r="D39"/>
@@ -640,7 +727,7 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40"/>
-      <c r="C40" t="s">
+      <c r="C40" t="s" s="4">
         <v>49</v>
       </c>
       <c r="D40"/>
@@ -648,7 +735,7 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41"/>
-      <c r="C41" t="s">
+      <c r="C41" t="s" s="4">
         <v>50</v>
       </c>
       <c r="D41"/>
@@ -656,7 +743,7 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42"/>
-      <c r="C42" t="s">
+      <c r="C42" t="s" s="4">
         <v>51</v>
       </c>
       <c r="D42"/>
@@ -664,7 +751,7 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43"/>
-      <c r="C43" t="s">
+      <c r="C43" t="s" s="4">
         <v>52</v>
       </c>
       <c r="D43"/>
@@ -672,7 +759,7 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44"/>
-      <c r="C44" t="s">
+      <c r="C44" t="s" s="4">
         <v>53</v>
       </c>
       <c r="D44"/>
@@ -680,7 +767,7 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45"/>
-      <c r="C45" t="s">
+      <c r="C45" t="s" s="4">
         <v>54</v>
       </c>
       <c r="D45"/>
@@ -688,7 +775,7 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46"/>
-      <c r="C46" t="s">
+      <c r="C46" t="s" s="4">
         <v>55</v>
       </c>
       <c r="D46"/>
@@ -696,7 +783,7 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47"/>
-      <c r="C47" t="s">
+      <c r="C47" t="s" s="4">
         <v>56</v>
       </c>
       <c r="D47"/>
@@ -704,7 +791,7 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48"/>
-      <c r="C48" t="s">
+      <c r="C48" t="s" s="4">
         <v>57</v>
       </c>
       <c r="D48"/>
@@ -712,7 +799,7 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49"/>
-      <c r="C49" t="s">
+      <c r="C49" t="s" s="4">
         <v>58</v>
       </c>
       <c r="D49"/>
@@ -720,7 +807,7 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50"/>
-      <c r="C50" t="s">
+      <c r="C50" t="s" s="4">
         <v>59</v>
       </c>
       <c r="D50"/>
@@ -728,7 +815,7 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51"/>
-      <c r="C51" t="s">
+      <c r="C51" t="s" s="4">
         <v>60</v>
       </c>
       <c r="D51"/>
@@ -736,7 +823,7 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52"/>
-      <c r="C52" t="s">
+      <c r="C52" t="s" s="4">
         <v>61</v>
       </c>
       <c r="D52"/>
@@ -744,7 +831,7 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53"/>
-      <c r="C53" t="s">
+      <c r="C53" t="s" s="4">
         <v>62</v>
       </c>
       <c r="D53"/>
